--- a/data/rate_of_moh_hospital_beds.xlsx
+++ b/data/rate_of_moh_hospital_beds.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedalawami/Desktop/Learn Data Science/Projects/corona-data-challenge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedalawami/Desktop/Learn Data Science/Projects/corona-data-challenge/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C651631C-8653-684D-8CF4-5C3CDFEFC2F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D9F1DE-8434-A847-89EF-53902728CD81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34420" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t xml:space="preserve">المنطقة </t>
   </si>
@@ -65,9 +65,6 @@
     <t>القصيم</t>
   </si>
   <si>
-    <t>Qaseem</t>
-  </si>
-  <si>
     <t>الشرقيه</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
   </si>
   <si>
     <t>تبوك</t>
-  </si>
-  <si>
-    <t>Tabouk</t>
   </si>
   <si>
     <t>حائل</t>
@@ -715,7 +709,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -1238,19 +1232,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33" customHeight="1">
@@ -1258,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -1305,7 +1299,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -1327,10 +1321,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4">
         <v>1455693</v>
@@ -1346,13 +1340,13 @@
     </row>
     <row r="6" spans="1:10" ht="33" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4">
         <f xml:space="preserve"> 3318189 + 1252914 + 457650</f>
@@ -1369,13 +1363,13 @@
     </row>
     <row r="7" spans="1:10" ht="33" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4">
         <f xml:space="preserve"> 1863362 + 398256</f>
@@ -1392,13 +1386,13 @@
     </row>
     <row r="8" spans="1:10" ht="33" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4">
         <v>930507</v>
@@ -1414,13 +1408,13 @@
     </row>
     <row r="9" spans="1:10" ht="33" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4">
         <v>716021</v>
@@ -1436,13 +1430,13 @@
     </row>
     <row r="10" spans="1:10" ht="33" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4">
         <v>375310</v>
@@ -1458,13 +1452,13 @@
     </row>
     <row r="11" spans="1:10" ht="33" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4">
         <v>1603659</v>
@@ -1478,13 +1472,13 @@
     </row>
     <row r="12" spans="1:10" ht="33" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4">
         <v>595705</v>
@@ -1500,13 +1494,13 @@
     </row>
     <row r="13" spans="1:10" ht="33" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4">
         <v>487108</v>
@@ -1522,13 +1516,13 @@
     </row>
     <row r="14" spans="1:10" ht="33" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4">
         <f xml:space="preserve"> 347494 + 173243</f>
